--- a/console/Domain-Name-and-Website/Domain-Name-Service/Domain-Name-System-控制台翻译内容.xlsx
+++ b/console/Domain-Name-and-Website/Domain-Name-Service/Domain-Name-System-控制台翻译内容.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="781">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,12 +842,2222 @@
 3.3 本《协议》版权由新网所有，新网保留在法律规定范围内解释权利。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>编辑、删除、查看域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名信息模板</t>
+  </si>
+  <si>
+    <t>域名信息模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒： 域名所有者名称代表域名的拥有权，请填写与所有者证件完全一致的企业名称或姓名。如果修改模板信息，相关域名信息也会随之更改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示：信息模版属于“审核中”状态时：信息模版不可修改，只能查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息模板首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回首页</t>
+  </si>
+  <si>
+    <t>域名所有者类型</t>
+  </si>
+  <si>
+    <t>域名所有者名称（中文）</t>
+  </si>
+  <si>
+    <t>域名所有者名称（中文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名管理联系人（中文）</t>
+  </si>
+  <si>
+    <t>域名管理联系人（中文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯地址（中文）</t>
+  </si>
+  <si>
+    <t>通讯地址（中文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家区号-地区区号(或手机号码前3位)-电话号码（或手机号码后8位)-分机号(手机不必填)</t>
+  </si>
+  <si>
+    <t>国家区号-地区区号(或手机号码前3位)-电话号码（或手机号码后8位)-分机号(手机不必填)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入四位数字分机号</t>
+  </si>
+  <si>
+    <t>请输入四位数字分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确手机号或者座机号</t>
+  </si>
+  <si>
+    <t>请输入正确手机号或者座机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名所有者名称（英文）</t>
+  </si>
+  <si>
+    <t>域名所有者名称（英文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名管理联系人 （英文）</t>
+  </si>
+  <si>
+    <t>域名管理联系人 （英文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（姓-名）</t>
+  </si>
+  <si>
+    <t>备注（姓-名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份（英文）</t>
+  </si>
+  <si>
+    <t>省份（英文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市（英文）</t>
+  </si>
+  <si>
+    <t>城市（英文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯地址（英文）</t>
+  </si>
+  <si>
+    <t>通讯地址（英文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名转入</t>
+  </si>
+  <si>
+    <t>域名转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入新域名</t>
+  </si>
+  <si>
+    <t>转入新域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入操作时间</t>
+  </si>
+  <si>
+    <t>转入操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入状态</t>
+  </si>
+  <si>
+    <t>转入状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移密码提交成功时间</t>
+  </si>
+  <si>
+    <t>转移密码提交成功时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很遗憾转入失败 , 请重新申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写信息</t>
+  </si>
+  <si>
+    <t>填写信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单</t>
+  </si>
+  <si>
+    <t>支付订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证邮箱</t>
+  </si>
+  <si>
+    <t>验证邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入处理</t>
+  </si>
+  <si>
+    <t>转入处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核结果</t>
+  </si>
+  <si>
+    <t>审核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入域名</t>
+  </si>
+  <si>
+    <t>请输入域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入转移密码</t>
+  </si>
+  <si>
+    <t>请输入转移密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即转入</t>
+  </si>
+  <si>
+    <t>立即转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入的域名需要符合以下转入规则：
+1、真实存在的域名才可进行域名转入；
+2、域名注册60天后才可进行域名转入；
+3、域名到期前15天不能转入；
+4、域名状态为禁止转移的不能转入；
+5、域名刚完成转移60天内的不能转入；
+6、域名处于纠纷、仲裁中或法院限制转出的不能转入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护域名的一种状态，域名不能转移注册商，可在注册商处解除该状态</t>
+  </si>
+  <si>
+    <t>保护域名的一种状态，域名不能转移注册商，可在注册商处解除该状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温馨提醒：
+1、域名转入前，请确认域名未开启注册信息保护服务；
+2、如域名是您在原注册商过期后进行的续费，建议您在续费操作45天后再做转入，否则根据注册局的规定，此类情况下的域名转入将无法增加一年
+3、输入域名和域名转移密码，转移密码需要在域名注册商索取；
+4、操作域名转入，域名转入本身免费，但是需要在我司续费一年操作，具体域名续费见官网；
+5、域名邮件确认，操作完转入续费之后您将收到域名转入确认邮件，点击确认转入后开始转入，如果五天未进行任何操作则转入失败；
+6、邮件确认域名进入状态，转入需要3-5个工作日，如果域名转移密码错误将导致转入失败；
+7、域名转入成功之后需要操作过户，域名过户到已经实名认证的信息模板之后才可以正常使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*您的域名所有者为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*以下域名信息为您创建的模板，您可直接使用，或重新创建模板*您的域名所有者为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">企业 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊敬的用户：
+感谢您选择北京京东世纪贸易有限公司（以下称"本公司"）为您提供的域名在线注册服务。
+请您认真细致地阅读以下的本公司域名在线注册服务条款。您只有同意了下述服务条款才能正式进入域名在线注册程序。如果您愿意接受我们的服务并同意此条款，请点击"我同意"继续进行注册；否则，请点击"我不同意"并退出。
+域名在线注册服务条款
+在以下条款中，"用户"是指通过本公司提供的注册服务，在相关域名注册机构注册域名的个人或者单位。
+用户在此保证所填写的用户信息是真实、准确、完整的，并且没有任何引人误解或者虚假的陈述。违反本规定的一切责任由用户自行承担，且本公司有权强制修改域名注册信息，包括其它(hold域名/删除域名/转移域名等)操作。如果该等信息发生变更，特别是有关域名管理联系人、技术联系人或缴费联系人的联系方式（如：通讯地址、电话、传真或电子邮件等）等信息发生变更，用户应在信息变更后15日内，按照本公司网站相关页面所提示的变更方式和流程予以变更。
+本公司有权根据《中国互联网络域名管理办法》的规定对用户提供的域名注册申请进行审核，对于违反《中国互联网络域名管理办法》规定的域名予以删除，并对此删除行为所造成的影响及后果不承担责任。但上述内容不能解释为本公司具有审核用户域名注册申请的义务；同时，本公司也不对用户所填写信息的真实、准确及完整性承担任何责任。
+用户同意此域名在线注册服务条款之效力如同用户亲自签字、盖章的书面条款一样，对用户具有法律约束力。
+用户进一步同意，用户正式进入在线域名注册程序即意味着用户同意了本在线服务条款的所有条款和CNNIC及ICANN的域名争议解决方案。
+第一条 项目和术语解释
+1-1 用户通过本公司提供的注册服务，在国际互联网（Internet）上注册用户申请注册的域名。
+1-2 域名注册的术语含义如下：
+1-2-1 域名注册：是指用户通过本公司向相关域名注册机构注册域名。
+1-2-2 域名注册成功：指用户申请注册的域名被域名注册管理机构确认没有在先的相同域名注册或者没有违反域名注册的有关强制性规定并且在规定的期限内收到用户支付的域名注册管理费用以及符合规定的域名申请资料，并由域名管理机构赋予用户一定期限的对该域名的所有权。域名注册是否成功的确认权在域名管理机构。
+1-2-3 CNNIC：中国互联网络信息中心，域名的注册管理机构。
+1-2-4 ICANN：互联网名称与数字地址分配机构，负责互联网协议（IP）地址的空间分配、协议标识符的指派、通用顶级域名（gTLD）以及国家和地区顶级域名（ccTLD）系统的管理、以及根服务器系统的管理。
+第二条 用户的陈述与保证
+2-1 用户承诺并保证已阅读并完全理解了本条款的所有内容，同意按照规定支付款项，遵守用户应承担的所有义务。用户进一步承诺遵守域名主管机关和域名注册管理机构的相关管理政策和规定，包括但不限于《中国互联网络域名管理办法》、《中国互联网络信息中心域名注册实施细则》、《中国互联网络信息中心域名争议解决办法》、《中国互联网络信息中心域名争议解决办法程序规则》、《中国互联网络信息中心域名注册服务机构变更办法》等。CNNIC和ICANN的域名注册管理办法和域名争议解决办法发生变化或被修改以后，用户拥有的域名继续适用新的CNNIC和ICANN域名注册管理办法和域名争议解决办法。用户在每次续期时缴纳费用的行为即表示同意接受续期时的注册申请协议的全部条款。
+2-2 用户承诺接受本在线条款不会违反用户以前签署的其他文件，也不会置本公司于违约或者违法的境地。
+2-3 如果用户提交的域名注册申请涉及任何争议、纠纷、诉讼、仲裁等，用户将立即通知本公司，并且应使本公司及其雇员、董事不受任何损害。
+第三条 费用支付
+3-1 用户同意按照本公司所公布的收费标准和缴费时间向本公司缴纳相关费用，并同意每一次续期都应适用续期时的收费标准，用户同意因收费标准调整产生的任何纠纷，本公司和CNNIC或ICANN有免于诉讼的权利。在接受本条款之同时，用户应将注册域名的全部款项支付给本公司，用户理解域名注册成功后，所缴纳的费用不可退回。
+3-2 在用户接受本条款后至本公司收到用户款项并向域名管理机构支付款项之前发生用户申请注册的域名被"抢注"的，本公司不承担任何责任。
+3-3 "本公司收到用户款项"是指本公司收到用户的邮政汇款单或者银行电汇到帐凭单等原件； "向域名管理机构支付款项"是指该域名管理机构收到该款项。
+3-4 用户应真实、准确、完整地填写用户信息，在付款时应使用与注册时完全一致的用户名称并注明该款项所对应的域名和用户名等以便本公司核对。若因用户或者其代理人未按照前述要求办理而导致域名未注册成功或者导致域名被域名管理机构取消的，或者发生域名被他人抢注的，均由用户自行承担责任。
+3-5 用户没有收到本公司的缴费通知不能成为用户不按时缴费或者续费的理由和解释。
+第四条 服务期限
+4-1 本公司的服务期限自域名注册成功之日起，并以款项数额为依据确认服务期限。
+4-2 下列情形本公司的服务期提前终止：
+4-2-1 双方协商一致变更的。
+4-2-2 双方签署的其他合同另有约定的。
+4-2-3 用户将域名转移到非本公司域名服务器上的。
+4-2-4 用户违反本条款、法律规定或者域名管理机构的规定/政策等，本公司根据规定或有权机关作出的决定、通知等停止服务的。
+4-2-5 域名管理机构终止服务或者通知本公司终止服务的。
+4-2-6 本公司按照法院、仲裁机构裁决终止服务的。
+4-2-7 用户采取欺骗、隐瞒等方式获得域名注册的或者采用非法手段获得域名注册的，本公司可以立即终止服务。
+4-2-8 用户未按时缴费的。
+4-2-9 一方当事人主体资格不存在或者消亡的。
+4-3 用户按照5-9的规定续费且域名管理机构接受用户续费的，本公司的服务期限延长至域名管理机构认可的域名有效期满之日。
+第五条 用户的权利和义务
+5-1 如果本公司受理并同意用户此次注册申请，则用户所申请的域名由本公司负责在域名数据库中给予注册并分配给用户，与该域名注册有关的一切法律责任由用户自行承担。
+5-2 用户可以在域名注册成功之后的任何时候，将域名保留在本公司的域名服务器或者转移到其他用户指定的域名服务器上（按照本公司及域名管理机构对于域名转移注册商的规定执行）。
+5-3 本公司在收到用户提交的有效域名转移申请材料后，向用户提供域名转移密码，用户应自行管理好自己的密码，谨防被盗或者泄漏。因保管不善导致的一切后果由用户自行承担。
+5-4 用户一旦申请域名注册即意味着用户承诺遵守域名注册管理机构现行的及今后修正的对域名注册和争议解决的政策、办法、规定及国家法律法规的有关规定。
+5-5 用户保证申请注册的域名，没有侵犯本公司或者任何第三方的合法权利包括但不限于他人的名称权、商标权和域名权利。如果该申请注册的域名侵犯了本公司或者任何第三方（包括但不限于各域名注册管理机构，如：ICANN、Verisign、CNNIC等）的权利，由用户承担一切责任。用户承诺承担此次域名注册全过程产生的权利和义务及违反本条款规定产生的后果。如因用户注册的域名妨害或侵害他人权利等原因而致使域名被注销或转移的，用户已缴纳的域名费用不予退还。
+5-6 用户认识到域名注册申请的成功与否是由申请本身及申请时间等因素决定的，本公司仅以代理身份代为办理有关手续，对域名能否成功注册不提供任何担保。在未与本公司核实之前，用户不得对外声称自己是该申请域名的所有者，也不得断定域名注册成功或者注册不成功。用户在递交域名注册申请后应主动到相关注册局的网站上查询该域名的法律状态。
+5-7 用户应在必要时向本公司出具授权委托书，向域名管理机构/本公司提供有关信息并为本公司的工作提供必要的协助。
+5-8 用户应按时足额向本公司缴纳所需的全部费用。另外，如果用户申请的域名注册需要提供CNNIC规定的合格的域名注册申请资料。如果在规定的时间内没有足额交费或者提供规定的合格的域名申请注册资料，将被视为自动放弃所注册域名，用户应承担全部后果（包括但不限于被域名注册管理机构取消该域名的注册）。
+5-9 用户充分认识到本公司的服务期限仅为双方已确定的购买年限，如用户希望在服务期限届满后继续拥有域名所有权及本公司的相关服务，用户应在服务期限届满之前至少20日在用户管理平台操作续费；用户未按照上述进行的，本公司将视为用户不委托本公司续费并在服务期限届满之日停止服务，并有权自行处理该域名（处理方式包括但不限于删除注册、注销或拍卖等）。域名自删除之日起进入赎回期、删除期或直接被注册局删除（根据不同域名规则不同）。在赎回期内用户如需要继续持有该域名，可向本公司交纳费用以赎回该域名（赎回费用以本公司所公布的收费价格为准），但本公司不保证赎回成功。域名未能成功赎回的，本公司将退还收取的该域名的赎回费用，此外本公司无须承担任何责任。若赎回期内该域名未赎回的，该域名将被注销，进入开放注册期。
+5-10 用户同意本公司没有义务审查用户拟申请注册的域名是否侵犯他人的在先权利；本公司也没有义务审查他人拟申请注册的域名是否侵犯用户的在先权利。发生上述情形，均与本公司无关。若有任何第三方对用户注册的域名主张权利，由用户与相关当事人自行协商解决或者通过法律或其他途径解决。用户保证使本公司不涉入任何上述争议并且不会因此而受到任何损害，否则用户应弥补本公司遭受的所有损失。用户在利用所注册的域名进行信息传播和自我服务时，应严格遵守《计算机信息网络国际联网安全保护管理办法》《中华人民共和国计算机信息网络国际联网管理暂行规定》《中华人民共和国计算机信息系统安全保护条例》《中华人民共和国电信条例》《全国人大常委会关于维护互联网安全的决定》、《互联网信息服务管理办法》、《互联网电子公告服务管理规定》、《互联网站从事登载新闻业务管理暂行规定》、《互联网等信息网络传播视听节目管理办法》、《互联网文化管理暂行规定》和国家其他有关法律、法规、行政规章，不得制作、复制、发布、传播任何法律法规禁止的有害信息。用户对其经营行为和发布的信息违反上述规定而引起的任何而引起的政治责任法律责任和给本公司造成的经济损失承担全部责任。
+5-11 用户保证所申请的域名的注册不是为了任何非法目的，也不具有恶意，并且该域名的使用将不违反任何有关法律、法规、行政规章、国家政策以及计算机和互联网行业的行业规范和惯例。
+5-12 用户同意如果其所持有的域名因受到第三方的投诉而产生域名争议时，用户应接受争议发生时CNNIC或ICANN域名争议解决办法条款的约束。用户同意，在域名争议期间不擅自修改和变更其域名注册信息。在域名争议期间发生的域名注册信息变更或者域名转让无效。
+5-13 用户未经信息产业部同意不得在其注册的域名下对公众提供下一级域名的注册服务。
+第六条 本公司的权利和义务
+6-1 本公司为用户办理域名注册的申请注册手续，提交规定的文件并代用户缴纳有关费用。本公司不以任何明示或者暗示的方式担保用户申请注册的域名能够成功注册。
+6-2 本公司提交用户的域名注册申请以当时在域名管理机构的域名数据库中的注册情况和查询结果为基础，但查询时没有冲突并不表明该域名一定能够注册成功。
+6-3 因域名注册管理机构的原因造成用户域名注册争议的以及出现下列情形的，本公司不承担任何责任：
+6-3-1 用户在线填写域名注册申请表时，域名被其他人抢注；
+6-3-2 由于电信线路和设备问题造成用户的域名被别人抢注；
+6-3-3 用户须填写详细的信息，由于信息不详而造成用户域名被他人抢注；
+6-3-4 用户须填写正确的信息，由于信息不正确可能引起所有权纠纷和问题；
+6-3-5 用户未严格按照提示填写申请表，或者由于填写不规范造成注册延误或被他人抢注；
+6-3-6 用户未严格按照规定的期限递交域名注册材料的。
+6-3-7 因域名注册管理机构的系统故障或操作失误导致注册失败或延误。
+6-3-8 因本公司无法预测或无法控制的因素导致用户域名注册不成功。
+6-4 本公司可以把用户信息录入可被公众查询的数据库和出版物中。
+6-5 本公司有权按照CNNIC或ICANN的相关规定，不批准用户提交的注册申请。
+6-6本公司根据5-9条处理域名（处理方式包括但不限于删除注册、注销或拍卖等），不得因此损害用户的任何合法权益，同时用户不得以此为由要求本公司承担任何责任。
+6-7 注册域名出现下列情形时，本公司有权予以注销：
+1．用户或其代理人申请注销域名的；
+2．用户提交的注册信息不真实、不准确、不完整或变更后未及时更新的；
+3．用户未按规定缴纳相应费用的；
+4．根据域名主管机关、法院或域名争议解决机构的决定、判决或裁决，应当注销的；
+5．违反本协议及其他相关法律、法规规定的。
+6-8 用户理解并同意，用户域名注册成功后，如未设置域名解析，则本公司有权自动设置此域名解析到一个非商业页面，在该域名有效期内，用户有权随时取消此自动解析设置。
+6-9 用户理解并同意，域名到期当天，本公司即可以选择把这个域名无限制重定向到任何一个IP地址，这个IP地址可以是用来收费的一个停留页面或者是一个商业搜索引擎。用户接受并同意，本公司不会也不能核实这样的重定向是否侵犯包括用户在内的任何注册人或任何第三方的合法权益（包括但不限于知识产权，隐私权，商标权）；用户接受并同意本公司不会也不能核实是否重定向所显示的内容不恰当，或违反任何国家和地区、省、联邦，州或当地的规则、规定或法律，或对用户、或第三方或他们的名声有损害；用户接受并同意本公司的责任仅限于在收到相关司法机关的裁定后及时中止对相关域名的重定向，本公司不对由重定向引起的直接的或间接的损失负任何责任。
+第七条 服务的解除、终止及违约责任
+7-1 在有效服务期限内，如果用户将域名转移到除本公司以外的其他域名服务器，本公司的服务义务即告终止。
+7-2 在有效服务期结束后，双方愿意继续合作的，双方同意按照届时有效的新的价格和条款另行商议合作事宜。
+7-3 如果用户所需域名未能注册成功，本公司将收取的该域名的相应费用退还用户，本公司无须承担其他任何责任。
+7-4 用户充分理解因本公司的网络故障、服务器故障而造成的延误或者给用户带来的损失均不应由本公司承担责任。
+7-5 用户如果不遵守本在线注册条款或者CNNIC或ICANN的任何规定，都可能被认为是一次严重违约。此时本公司可以向用户发出一个电邮通知并说明违约。如果在收到通知3日内，用户没有提供或不能提供关于没有违约的合理证据，本公司将删除用户注册的域名。本公司以前没有对违约采取措施不能成为用户违约或者抗辩的理由和解释。
+第八条 争议解决
+8-1 因本服务条款有关的一切争议，双方当事人应通过友好协商方式解决。
+8-2 如果协商未成，双方同意向本公司主要经营地的人民法院起诉。
+8-3 本服务条款适用有关域名管理机构（包括但不限于ICANN、Verisign和CNNIC等）的域名管理办法、政策和争议解决方案。具体内容详见上述机构的网站www.icann.org; www.verisigninc.com; www.cnnic.cn等。
+8-4 若发生任何第三人注册的域名与用户的在先权利发生冲突的，或者发生"抢注用户域名"的，由用户与该第三方自行协商解决、通过法律或者其他途径解决。本公司对此不应承担任何责任。
+8-5 若发生用户拟注册的域名与他人的在先权利发生冲突的，或者发生"抢注他人域名"的，由用户与该第三方自行协商解决、通过法律或者其他途径解决。本公司对此不应承担任何责任。
+8-6 用户理解并同意若因本公司重大过错导致用户申请、注册的域名丢失、被注销的，本公司的责任上限为该域名费用的该用户当年向本公司交纳的域名年度运行管理费。而且，本公司不应对用户的其他直接或间接损失、商机的消失、利润的损失、侵权、其他无形损失及基于用户与他人签署的合同而遭受的损失承担责任。本公司也不承担由于以下（并且不限于以下）事项引起的任何和全部的损失和责任：（1）由于技术问题造成的损失或责任；（2）由于不可抗力造成的损失或责任；（3）由于未被授权者使用或误用用户的帐号引起的损失或责任；（4）由于用户原因导致的损失或责任，包括未能按时缴纳域名年度运行管理费；（5）由于适用争议解决办法而引起的损失或责任。
+8-7 用户同意，域名注册成功后，域名注册管理机构CNNIC因过错对用户造成损害的，中国互联网络信息中心的责任上限为该用户当年向本公司交纳的域名年度运行管理费。
+第九条 不可抗力
+9-1 因不可抗力或者其他意外事件，使得本服务履行不可能、不必要或者无意义的，遭受不可抗力、意外事件的一方不承担责任。
+9-2 不可抗力、意外事件是指不能预见、不能克服并不能避免且对一方或双方当事人造成重大影响的客观事件，包括但不限于自然灾害如洪水、地震、瘟疫流行和风暴等以及社会事件如战争、动乱、政府行为等。
+9-3 用户同意鉴于互联网的特殊性，黑客攻击、互联网连通中断或者系统故障、电信部门原因造成的连通中断等非本公司原因给用户或者第三方造成的损失不应由本公司承担。
+第十条 其他约定
+10-1 有关条款若被权威机关认定为无效，不影响其他条款的效力，也不影响本条款的解释、违约责任及争议解决的有关约定的效力。
+10-2 本服务条款的效力、解释、履行和争议的解决均适用中华人民共和国法律法规、有关域名管理机构的域名争议解决办法/政策和计算机行业的规范。
+10-3 如果本服务条款任何规定根据适用的现行法律被确定为无效或无法实施，其他所有条款将继续有效。
+10-4 一方变更通知、通讯地址或其他联系方式，应自变更之日起30日内将变更后的地址、联系方式通知另一方，否则变更方应对此造成的一切后果承担责任。用户同意，本公司的有关通知只需在本公司有关网页上发布即视为送达用户。
+10-5 对条款的理解与解释应依据条款目的和文本原义及业界通行的理解和惯例进行，标题不应影响条款的解释。
+10-6 有关条款或者约定若与双方以前签署的有关条款或者本公司的有关陈述不一致或者相抵触的，以本服务条款为准。
+10-7 在有效服务期内，因本公司上市、被收购、与第三方合并、名称变更等事由，用户同意本公司可以将其权利和/或义务转让给相应的本公司权利/义务的承受者。
+10-8 本公司有权在必要时修改服务条款，本公司服务条款一旦发生变动，将会在其网站的页面上提示有关内容。用户如果不同意所改动的内容，可以主动取消获得的服务；如果用户继续接受服务，则视为接受本服务条款的变动。
+10-9 如注册服务机构被终止认证资格时，用户同意注册服务机构有权在10日内对其所负责注册的域名在中国互联网络信息中心（CNNIC）认证的其他注册服务机构之间进行选择和分配。如果逾期未做或未完成选择与分配，服从中国互联网络信息中心（CNNIC）对域名注册服务机构的选择和分配。
+10-10 在域名处于司法程序、仲裁程序或域名争议解决程序期间，申请人不得申请转让或注销被争议的域名，但域名受让方以书面形式同意接受司法裁判、仲裁裁决或争议解决机构裁决约束的除外。
+用户在此再次保证已经完全阅读并理解了上述在线域名注册服务条款并自愿正式进入在线域名注册程序，接受上述所有条款的约束。
+附：《2009年注册商委任协议规定之注册人权利与责任》
+（http://www.icann.org/zh/registrars/registrant-rights-responsibilities-zh.htm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名在线服务条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我已阅读，理解并同意协议《域名在线服务条款》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选域名价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已节省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很遗憾转入失败 , 请重新申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*域名所有者单位名称（中文）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名所有者类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传失败</t>
+  </si>
+  <si>
+    <t>输入的域名格式错误</t>
+  </si>
+  <si>
+    <t>取消批量</t>
+  </si>
+  <si>
+    <t>批量操作</t>
+  </si>
+  <si>
+    <t>域名所有人证件号码不能为空</t>
+  </si>
+  <si>
+    <t>企业营业执照或组织机构代码证号不能为空</t>
+  </si>
+  <si>
+    <t>身份证号码长度不正确</t>
+  </si>
+  <si>
+    <t>身份证格式不正确</t>
+  </si>
+  <si>
+    <t>请上传实名认证材料</t>
+  </si>
+  <si>
+    <t>服务端异常</t>
+  </si>
+  <si>
+    <t>域名所有者名称(中文)最长50个字符</t>
+  </si>
+  <si>
+    <t>请输入域名所有者名称(英文)</t>
+  </si>
+  <si>
+    <t>域名所有者名称(英文)最长100个字符</t>
+  </si>
+  <si>
+    <t>请输入域名管理联系人(中文)</t>
+  </si>
+  <si>
+    <t>域名域名管理联系人(中文)最长50个字符</t>
+  </si>
+  <si>
+    <t>请输入域名管理联系人(英文-姓)</t>
+  </si>
+  <si>
+    <t>域名域名管理联系人(英文)最长100个字符</t>
+  </si>
+  <si>
+    <t>请输入域名管理联系人(英文-名)</t>
+  </si>
+  <si>
+    <t>通讯地址(中文)最长200个字符</t>
+  </si>
+  <si>
+    <t>通讯地址(英文)最长200个字符</t>
+  </si>
+  <si>
+    <t>请输入邮编</t>
+  </si>
+  <si>
+    <t>邮编长度6位</t>
+  </si>
+  <si>
+    <t>邮编只能是数字</t>
+  </si>
+  <si>
+    <t>请输入邮箱</t>
+  </si>
+  <si>
+    <t>请输入正确的邮箱</t>
+  </si>
+  <si>
+    <t>请输入电话国家编码</t>
+  </si>
+  <si>
+    <t>请输入电话区号</t>
+  </si>
+  <si>
+    <t>请输入手机号或者座机号</t>
+  </si>
+  <si>
+    <t>请输入传真国家编码</t>
+  </si>
+  <si>
+    <t>请输入传真区号</t>
+  </si>
+  <si>
+    <t>请输入传真号</t>
+  </si>
+  <si>
+    <t>只允许输入英文、数字,且必须含有英文,特殊字符允许输入 .,、() -"“”&amp;/'·及空格符</t>
+  </si>
+  <si>
+    <t>只允许输入中文、英文、数字,且必须含有中文,特殊字符允许输入 .,、() -"“”&amp;/'·及空格符</t>
+  </si>
+  <si>
+    <t>请输入三到四位数字区号，座机必填，手机不填</t>
+  </si>
+  <si>
+    <t>请选择</t>
+  </si>
+  <si>
+    <t>获取国家失败</t>
+  </si>
+  <si>
+    <t>获取省份失败</t>
+  </si>
+  <si>
+    <t>获取市失败</t>
+  </si>
+  <si>
+    <t>html:</t>
+  </si>
+  <si>
+    <t>提示-404</t>
+  </si>
+  <si>
+    <t>对不起，您的风筝已掉线，请时光倒流回前一秒</t>
+  </si>
+  <si>
+    <t>证书</t>
+  </si>
+  <si>
+    <t>域名证书</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>vm:</t>
+  </si>
+  <si>
+    <t>文件类型不合法</t>
+  </si>
+  <si>
+    <t>上传认证资料</t>
+  </si>
+  <si>
+    <t>等待审核</t>
+  </si>
+  <si>
+    <t>域名所有人</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>企业</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>请填写与域名所有者一致的身份证号码</t>
+  </si>
+  <si>
+    <t>请填写营业执照或组织机构代码</t>
+  </si>
+  <si>
+    <t>上传实名认证材料</t>
+  </si>
+  <si>
+    <t>立即上传</t>
+  </si>
+  <si>
+    <t>只允许上传jpg格式，大小50KB-100KB</t>
+  </si>
+  <si>
+    <t>预览</t>
+  </si>
+  <si>
+    <t>保 存</t>
+  </si>
+  <si>
+    <t>您的认证信息正在审核中，请耐心等待</t>
+  </si>
+  <si>
+    <t>如有问题可联系客服</t>
+  </si>
+  <si>
+    <t>恭喜您，您的认证信息已通过审核</t>
+  </si>
+  <si>
+    <t>您可以正常使用域名了</t>
+  </si>
+  <si>
+    <t>很遗憾，您的认证信息暂未通过审核</t>
+  </si>
+  <si>
+    <t>您可以修改后再次提交，如有问题可联系客服</t>
+  </si>
+  <si>
+    <t>很遗憾，您的实名资料上传注册局失败</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>取 消</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>京东云</t>
+  </si>
+  <si>
+    <t>产品手册</t>
+  </si>
+  <si>
+    <t>联系我们</t>
+  </si>
+  <si>
+    <t>工单</t>
+  </si>
+  <si>
+    <t>提交工单</t>
+  </si>
+  <si>
+    <t>我的工单</t>
+  </si>
+  <si>
+    <t>消费记录</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>账单</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>弹性计算</t>
+  </si>
+  <si>
+    <t>云主机</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>安全组</t>
+  </si>
+  <si>
+    <t>SSH密钥</t>
+  </si>
+  <si>
+    <t>云硬盘</t>
+  </si>
+  <si>
+    <t>云硬盘快照</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>子网</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>NAT网关</t>
+  </si>
+  <si>
+    <t>公网IP</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>数据库与缓存</t>
+  </si>
+  <si>
+    <t>云数据库</t>
+  </si>
+  <si>
+    <t>云缓存</t>
+  </si>
+  <si>
+    <t>数据库备份</t>
+  </si>
+  <si>
+    <t>存储与CDN</t>
+  </si>
+  <si>
+    <t>云存储</t>
+  </si>
+  <si>
+    <t>云安全</t>
+  </si>
+  <si>
+    <t>DDos基础防护</t>
+  </si>
+  <si>
+    <t>域名服务</t>
+  </si>
+  <si>
+    <t>域名管理</t>
+  </si>
+  <si>
+    <t>信息模板</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>监控报警</t>
+  </si>
+  <si>
+    <t>续费管理</t>
+  </si>
+  <si>
+    <t>授权管理</t>
+  </si>
+  <si>
+    <t>子账号管理</t>
+  </si>
+  <si>
+    <t>上一页</t>
+  </si>
+  <si>
+    <t>下一页</t>
+  </si>
+  <si>
+    <t>管理域名信息</t>
+  </si>
+  <si>
+    <t>注册域名</t>
+  </si>
+  <si>
+    <t>服务状态</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>续费</t>
+  </si>
+  <si>
+    <t>请先进行实名认证</t>
+  </si>
+  <si>
+    <t>解析</t>
+  </si>
+  <si>
+    <t>切换云解析</t>
+  </si>
+  <si>
+    <t>尊敬的客户您好</t>
+  </si>
+  <si>
+    <t>京东云域名解析服务近期进行了大版本的升级，升级为云解析。升级后的云解析拥有功能上的极大改善，并拥有极速的解析体验，且没有任何费用，您只需简单做一些配置即可完成修改，如果在修改过程中遇到任何情况或问题请联系：4006151212</t>
+  </si>
+  <si>
+    <t>基础解析功能提升</t>
+  </si>
+  <si>
+    <t>A记录、CNAME、MX、TXT、NS、AAAA 、SRV、显性URL、隐形URL多种记录类型</t>
+  </si>
+  <si>
+    <t>添加域名解析记录不限条数，秒级TTL设置，实时生效，泛解析，子域名扩展，A记录负载均衡，中文域名解析，域名更换，京东云IP绑定，快速接入</t>
+  </si>
+  <si>
+    <t>域名智能解析提升</t>
+  </si>
+  <si>
+    <t>移动、联通、电信三大运营商的分省解析线路。可按照全国7个大区的维度划分线路：华北、华东、华中、华南、东北、西北、西南添加解析记录，可按照全国31个省市包括港澳台地区添加解析记录，小运营商（例如方正、华数）的解析线路支持，海外线路的支持（全球60多个主要国家），搜索引擎线路支持，搜索引擎优化</t>
+  </si>
+  <si>
+    <t>安全防护提升</t>
+  </si>
+  <si>
+    <t>每个域名可享2G、5wq/s的安全防护，同时您还可以根据需要购买更高的安全防护服务</t>
+  </si>
+  <si>
+    <t>解析能力提升</t>
+  </si>
+  <si>
+    <t>高性能 DNS 内核，独享DNS服务器，领先的多节点集群部署，http DNS支持，edns支持，丰富的解析报表展示</t>
+  </si>
+  <si>
+    <t>Linux上验证方法</t>
+  </si>
+  <si>
+    <t>以域名test.jdgslb.com为例</t>
+  </si>
+  <si>
+    <t>直接查询</t>
+  </si>
+  <si>
+    <t>查询确认解析记录</t>
+  </si>
+  <si>
+    <t>Windows下验证方法</t>
+  </si>
+  <si>
+    <t>以test.jdgslb.com为例</t>
+  </si>
+  <si>
+    <t>查询test.jdgslb.com的域名信息</t>
+  </si>
+  <si>
+    <t>查询test.jdgslb.com的cname域名解析</t>
+  </si>
+  <si>
+    <t>链接地址</t>
+  </si>
+  <si>
+    <t>推送解析失败</t>
+  </si>
+  <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>不同意</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>邮箱链接已过期</t>
+  </si>
+  <si>
+    <t>重新验证邮箱</t>
+  </si>
+  <si>
+    <t>未知错误</t>
+  </si>
+  <si>
+    <t>模板下关联域名列表</t>
+  </si>
+  <si>
+    <t>域名名称</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>提醒： 域名所有者名称代表域名的拥有权，请填写与所有者证件完全一致的企业名称或姓名。如果修改模板信息，相关域名信息也会随之更改</t>
+  </si>
+  <si>
+    <t>域名所有者单位名称 (中文)</t>
+  </si>
+  <si>
+    <t>请选择国家</t>
+  </si>
+  <si>
+    <t>请选择省</t>
+  </si>
+  <si>
+    <t>请选择市</t>
+  </si>
+  <si>
+    <t>传真</t>
+  </si>
+  <si>
+    <t>国家（英文）</t>
+  </si>
+  <si>
+    <t>提示：信息模版属于“审核中”状态时：信息模版不可修改，只能查看</t>
+  </si>
+  <si>
+    <t>域名信息模板管理</t>
+  </si>
+  <si>
+    <t>创建模板信息</t>
+  </si>
+  <si>
+    <t>实名认证状态</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>查看域名</t>
+  </si>
+  <si>
+    <t>转入的域名需要符合以下转入规则</t>
+  </si>
+  <si>
+    <t>真实存在的域名才可进行域名转入</t>
+  </si>
+  <si>
+    <t>域名注册60天后才可进行域名转入</t>
+  </si>
+  <si>
+    <t>域名到期前15天不能转入</t>
+  </si>
+  <si>
+    <t>域名状态为禁止转移的不能转入</t>
+  </si>
+  <si>
+    <t>域名刚完成转移60天内的不能转入</t>
+  </si>
+  <si>
+    <t>域名处于纠纷、仲裁中或法院限制转出的不能转入</t>
+  </si>
+  <si>
+    <t>温馨提醒</t>
+  </si>
+  <si>
+    <t>域名转入前，请确认域名未开启注册信息保护服务</t>
+  </si>
+  <si>
+    <t>如域名是您在原注册商过期后进行的续费，建议您在续费操作45天后再做转入，否则根据注册局的规定，此类情况下的域名转入将无法增加一年</t>
+  </si>
+  <si>
+    <t>输入域名和域名转移密码，转移密码需要在域名注册商索取</t>
+  </si>
+  <si>
+    <t>操作域名转入，域名转入本身免费，但是需要在我司续费一年操作，具体域名续费见官网</t>
+  </si>
+  <si>
+    <t>域名邮件确认，操作完转入续费之后您将收到域名转入确认邮件，点击确认转入后开始转入，如果五天未进行任何操作则转入失败</t>
+  </si>
+  <si>
+    <t>邮件确认域名进入状态，转入需要3-5个工作日，如果域名转移密码错误将导致转入失败</t>
+  </si>
+  <si>
+    <t>域名转入成功之后需要操作过户，域名过户到已经实名认证的信息模板之后才可以正常使用</t>
+  </si>
+  <si>
+    <t>根据注册局规定，您需要对邮箱进行验证后，域名才能继续转入</t>
+  </si>
+  <si>
+    <t>请在xxx前点击邮箱中的验证链接，逾期域名转入将失败</t>
+  </si>
+  <si>
+    <t>验证邮箱已发送至域名所有者邮箱</t>
+  </si>
+  <si>
+    <t>确认要取消继续转入</t>
+  </si>
+  <si>
+    <t>域名转入邮箱验证成功页面</t>
+  </si>
+  <si>
+    <t>确认完成</t>
+  </si>
+  <si>
+    <t>进入管理转入域名列表</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>产品内容</t>
+  </si>
+  <si>
+    <t>确认结果</t>
+  </si>
+  <si>
+    <t>已经开始转入我司</t>
+  </si>
+  <si>
+    <t>根据注册局规定域名转入处理周期至少5天</t>
+  </si>
+  <si>
+    <t>如果您不想继续将域名转入我司，可取消转入</t>
+  </si>
+  <si>
+    <t>您确定取消转入操作</t>
+  </si>
+  <si>
+    <t>取消转入后将导致域名转入失败，请谨慎操作</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>继续转入</t>
+  </si>
+  <si>
+    <t>取消转入</t>
+  </si>
+  <si>
+    <t>恭喜您转入成功，立即解析操作</t>
+  </si>
+  <si>
+    <t>很遗憾转入失败</t>
+  </si>
+  <si>
+    <t>重新申请</t>
+  </si>
+  <si>
+    <t>java:</t>
+  </si>
+  <si>
+    <t>登录用户不存在</t>
+  </si>
+  <si>
+    <t>请先购买域名后认证</t>
+  </si>
+  <si>
+    <t>只能本人可实名认证</t>
+  </si>
+  <si>
+    <t>所有者身份证号码不能为空</t>
+  </si>
+  <si>
+    <t>所有者证件号码不能为空</t>
+  </si>
+  <si>
+    <t>保存认证信息成功</t>
+  </si>
+  <si>
+    <t>保存认证信息失败</t>
+  </si>
+  <si>
+    <t>上传失败</t>
+  </si>
+  <si>
+    <t>有域名使用此信息模板,不允许删除</t>
+  </si>
+  <si>
+    <t>删除失败</t>
+  </si>
+  <si>
+    <t>账户信息错误</t>
+  </si>
+  <si>
+    <t>邮箱验证成功</t>
+  </si>
+  <si>
+    <t>获取域名模板邮箱地址失败</t>
+  </si>
+  <si>
+    <t>查询结果为空</t>
+  </si>
+  <si>
+    <t>服务端修改模板异常</t>
+  </si>
+  <si>
+    <t>服务端添加模板失败</t>
+  </si>
+  <si>
+    <t>服务端删除模板异常</t>
+  </si>
+  <si>
+    <t>文件类型不支持</t>
+  </si>
+  <si>
+    <t>文件大小不能超过100K</t>
+  </si>
+  <si>
+    <t>图片必须大于50K</t>
+  </si>
+  <si>
+    <t>非法文件</t>
+  </si>
+  <si>
+    <t>传入的参数为Null</t>
+  </si>
+  <si>
+    <t>取消域名转入成功</t>
+  </si>
+  <si>
+    <t>取消域名转入失败</t>
+  </si>
+  <si>
+    <t>调用接口失败</t>
+  </si>
+  <si>
+    <t>域名为空,请输入要搜索的域名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不支持的域名产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此后缀已暂停服务，如有问题请联系客服</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的余额不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车没有产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先添加购物车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请阅读并同意协议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已充值成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已节省</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新加载</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询域名信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的操作过于频繁，请输入验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的验证码不正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5秒内仅可查询一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日查询次数已用尽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取信息失败，可能是服务器睡着了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的域名不符合规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择域名类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入要注册的域名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您想抢注的域名，字母数字组合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所购域名数据非法,请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据非法,请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉  已出售</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">您的域名   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查询超时   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可用   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询超时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇喔，购买出现问题啦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您支付成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功，请进入域名列表查看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看域名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续选购</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功，将在 5 秒后跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击这里跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询次数超限,仅可查询100次/天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询过于频繁,5秒内仅可刷新一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易超时请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此后缀已暂停服务，如有问题请联系客服</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不能为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名所有人证件号码不能为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业营业执照或组织机构代码证号不能为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码长度不正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证格式不正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传实名认证材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取国家失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取省份失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取市失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家码格式错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号格式错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码格式错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器错误,请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码发送失败,请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误,请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录值填写错误，请重新输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级填写错误，请选择正确的优先级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机记录验证错误，请重新输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器错误，请稍后尝试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名所有者名称(中文)最长64个字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入域名所有者名称(英文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名所有者名称(英文)最长64个字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入域名管理联系人(中文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名域名管理联系人(中文)最长64个字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入域名管理联系人(英文-姓)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名域名管理联系人(英文)最长23个字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入域名管理联系人(英文-名)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名域名管理联系人(英文)最长40个字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯地址(中文)最长64个字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯地址(英文)最长64个字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入邮编</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编长度6位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编只能是数字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择国家(中文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择省份(中文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择城市(中文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入国家(英文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度最长255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入省份(英文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入城市(英文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入电话国家编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入电话区号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号或者座机号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入传真国家编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入传真区号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入传真号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家(中文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份(中文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市(中文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只允许输入英文、数字,且必须含有英文,特殊字符允许输入 .,、() -\"“”&amp;/\'·及空格符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入三到四位数字区号，座机必填，手机不填</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确手机号或者座机号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入四位数字分机号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只允许输入中文、英文、数字,且必须含有中文,特殊字符允许输入 .,、() -\"“”&amp;/\'·及空格符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认要删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消批量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的域名已过户成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名过户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名所有者变更（过户），意味着域名所有权变更为新所有者，请您谨慎操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写新所有者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传认证资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待审核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过户成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过户失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新过户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您提交的审核信息如下，审核您的资格信息需要2-3个工作日，请您耐心等待。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写与域名所有者一致的身份证号码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写营业执照或组织机构代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传50KB至1M、jpg格式的身份证正面的扫描件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与填写所有者证件号码一致的,如有效营业执照或组织机构代码证副本扫描件或数码照片。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的认证信息正在审核中，请耐心等待</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有问题可联系客服</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您，您的认证信息已通过审核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以正常使用域名了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即过户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>很遗憾，您的认证信息暂未通过审核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以修改后再次提交，如有问题可联系客服</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>很遗憾，您的实名资料上传注册局失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传资料成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名所有者实名认证上传资料成功，预计在3-5个工作日内完成审核，请您耐心等待审核结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实名认证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名转出中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名已转出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名已过期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名过户中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型不合法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒： 域名所有者名称代表域名的拥有权，请填写与所有者证件完全一致的企业名称或姓名。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示：信息模版属于“审核中”状态时：信息模版不可修改，只能查看。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册域名服务器，可实现自己为域名作解析支持,或增设子域名。申请DNS时，建议您一次性申请两个。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为默认DNS请输入修改的域名DNS（注： 国际域名最少填写2个，最多填写6个 ）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写格式正确的dns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有设置手机，点击确定前去设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入收到的手机验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证手机失败，请重新验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请域名转移密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未查询到该域名所有者的邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际域名在线转移协议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先同意协议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>索取转移密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统已发送确认信至域名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过确认信中的地址确认您的转移申请</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊敬的用户您好</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统已将转移密码至域名所有者邮箱。请在8天内提交转移，超过8天需要重新索取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名转出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误,请您提供正确的域名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名已经开启安全锁,不能过户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获取到邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送失败,请重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码为空,请重新输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码失效,请重新获取验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者身份证号码不能为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者证件号码不能为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存认证信息成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用远程接口失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择不同的模板进行过户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新过户状态失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求超时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商接口调用失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选择模板,请重新过户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名正在转出,禁止过户操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名已转出,禁止过户操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名过户中,禁止重复操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名过期,禁止过户操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先购买域名后认证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能本人可实名认证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此域名禁止转移状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名设置安全锁，不允许修改DNS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名已经开启安全锁，不能修改信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改域名联系人失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误,请检查输入的参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录类型错误，请检查记录类型是否正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录值错误，请检查记录值是否正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机记录填写错误，请检查主机记录是否正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有设置手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户手机号异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码失效或不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有域名使用此信息模板,不允许删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未查询到邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作过于频繁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入参数为NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类组装失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用接口失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取域名转入状态成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取域名转入状态失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消域名转入成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消域名转入失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取转移密码成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取转移密码超时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取转移密码失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新获取转移密码成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新获取转移密码失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过户请求超时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过户请求失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入记录成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入记录失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新过户记录成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新过户记录失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除过户记录成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除过户记录失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名注册申请表信息实名认证中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名注册申请表信息已认证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端更新失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件信息不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新渠道价格参数错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除渠道价格时传入参数错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，请重新尝试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端添加失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单不是主单或者自然单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增域名权限失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改域名权限失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加转入记录失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新转入记录失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询转入记录失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我司不支持此域名转入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此域名未注册不能进行转入操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应订单不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增域名列表失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新域名列表信息失败，用户Pin不能为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单价格更新失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单价格更新失败,订单号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品停用了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新订单价格失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新主单价格失败,单号:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买域名余额不足,余额:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册或转入未满60天,不支持转出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名过户中,不支持转出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名模板信息修改时间小于60天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实名认证通过,不支持转出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +3074,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -889,12 +3113,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,10 +3428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2018,7 +4245,7 @@
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -2078,114 +4305,3468 @@
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C158" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C159" s="1" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C160" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C161" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" ht="33" x14ac:dyDescent="0.15">
-      <c r="C161" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="33" x14ac:dyDescent="0.15">
       <c r="C162" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C163" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C163" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C164" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C165" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C166" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C167" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C168" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C169" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C170" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C171" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C172" s="1" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C173" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C174" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B174" s="1" t="s">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C175" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C176" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C177" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C177" s="1" t="s">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C178" s="1" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B179" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C180" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C181" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C182" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C183" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C184" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C185" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C186" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C187" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C188" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C189" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C190" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C191" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C192" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C193" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C194" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C195" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C196" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C197" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C198" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B199" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C200" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C201" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C202" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C203" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C204" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C205" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C206" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C207" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C208" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C209" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C210" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C211" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C212" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C213" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C214" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C215" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C216" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C217" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="C218" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" ht="280.5" x14ac:dyDescent="0.15">
+      <c r="C219" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C220" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C221" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C222" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C223" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C224" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C225" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C226" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C227" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="B228" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C229" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C230" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C231" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C232" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B234" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C235" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C236" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C237" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C238" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C239" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C240" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C241" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C242" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C243" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C244" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C245" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C246" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C247" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C248" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C249" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C250" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C251" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C252" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C253" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C254" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C255" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C256" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C257" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C258" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C259" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C260" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C261" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C262" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C263" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C264" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C265" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C266" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C267" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C268" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C269" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C270" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C271" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C272" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C273" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C274" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C275" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C276" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C277" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C279" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C280" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C281" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C282" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C283" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C284" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C285" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C287" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C288" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C289" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C290" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C291" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C292" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C293" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C294" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C295" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C296" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C297" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C298" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C299" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C300" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C301" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C302" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C303" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C304" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C305" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C306" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C307" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C308" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C309" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C310" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C311" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C312" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C313" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C314" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C315" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C316" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C317" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C318" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C319" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C320" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C321" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C322" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C323" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C324" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C325" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C326" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C327" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C328" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C329" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C330" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C331" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C332" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C333" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C334" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C335" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C336" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C337" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C338" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C339" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C340" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C341" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C342" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C343" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C344" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C345" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C346" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C347" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C348" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C349" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C350" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C351" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C352" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C353" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C354" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C355" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C356" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C357" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C358" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C359" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C360" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C361" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C362" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C363" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C364" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C365" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C366" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C367" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C368" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C369" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C370" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C371" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C372" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C373" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C374" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="C375" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C376" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C377" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C378" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C379" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" ht="99" x14ac:dyDescent="0.15">
+      <c r="C380" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C381" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C382" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C383" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C384" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C385" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C386" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C387" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C388" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C389" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C390" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C391" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C392" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C393" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C394" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C395" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C396" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C397" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C398" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C399" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C400" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C401" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C402" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C403" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C404" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C405" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C406" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C407" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C408" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C409" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C410" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C411" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C412" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C413" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C414" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C415" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C416" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C417" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C418" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C419" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C420" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C421" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C422" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C423" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C424" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C425" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C426" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C427" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C428" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C429" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C430" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C431" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C432" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C433" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C434" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C435" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C436" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C437" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C438" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C439" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C440" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C441" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C442" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C443" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C444" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C445" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C446" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C447" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C448" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C449" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C450" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C451" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C452" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C453" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C454" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C455" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C456" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C457" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C458" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C459" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C460" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C461" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C462" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C463" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C464" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C465" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C466" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C467" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C468" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C469" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C470" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C471" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C472" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C473" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C474" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="C475" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C476" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C477" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C478" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C479" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C480" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C481" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C482" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C483" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C484" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C485" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C486" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C487" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C488" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C489" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C490" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C491" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C492" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C493" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C494" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C495" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C497" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C498" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C499" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C500" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C501" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C502" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C503" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C504" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C505" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C506" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C507" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C508" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C509" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C510" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C511" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C512" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C515" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C516" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C517" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C519" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C520" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C521" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C522" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C523" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C525" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C526" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C527" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C528" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B530" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B531" s="3"/>
+      <c r="C531" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B532" s="3"/>
+      <c r="C532" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B533" s="3"/>
+      <c r="C533" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B534" s="3"/>
+      <c r="C534" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B535" s="3"/>
+      <c r="C535" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B536" s="3"/>
+      <c r="C536" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B537" s="3"/>
+      <c r="C537" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B538" s="3"/>
+      <c r="C538" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B539" s="3"/>
+      <c r="C539" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B540" s="3"/>
+      <c r="C540" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B541" s="3"/>
+      <c r="C541" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B542" s="3"/>
+      <c r="C542" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B543" s="3"/>
+      <c r="C543" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B544" s="3"/>
+      <c r="C544" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B545" s="3"/>
+      <c r="C545" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B546" s="3"/>
+      <c r="C546" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B547" s="3"/>
+      <c r="C547" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B548" s="3"/>
+      <c r="C548" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B549" s="3"/>
+      <c r="C549" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B550" s="3"/>
+      <c r="C550" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B551" s="3"/>
+      <c r="C551" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B552" s="3"/>
+      <c r="C552" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B553" s="3"/>
+      <c r="C553" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B554" s="3"/>
+      <c r="C554" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B555" s="3"/>
+      <c r="C555" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B556" s="3"/>
+      <c r="C556" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B557" s="3"/>
+      <c r="C557" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B558" s="3"/>
+      <c r="C558" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B559" s="3"/>
+      <c r="C559" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B560" s="3"/>
+      <c r="C560" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B561" s="3"/>
+      <c r="C561" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B562" s="3"/>
+      <c r="C562" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B563" s="3"/>
+      <c r="C563" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B564" s="3"/>
+      <c r="C564" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B565" s="3"/>
+      <c r="C565" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B566" s="3"/>
+      <c r="C566" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B567" s="3"/>
+      <c r="C567" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B568" s="3"/>
+      <c r="C568" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B569" s="3"/>
+      <c r="C569" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B570" s="3"/>
+      <c r="C570" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B571" s="3"/>
+      <c r="C571" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B572" s="3"/>
+      <c r="C572" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B573" s="3"/>
+      <c r="C573" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B574" s="3"/>
+      <c r="C574" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B575" s="3"/>
+      <c r="C575" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B576" s="3"/>
+      <c r="C576" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B577" s="3"/>
+      <c r="C577" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B578" s="3"/>
+      <c r="C578" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B579" s="3"/>
+      <c r="C579" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B580" s="3"/>
+      <c r="C580" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B581" s="3"/>
+      <c r="C581" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B582" s="3"/>
+      <c r="C582" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B583" s="3"/>
+      <c r="C583" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B584" s="3"/>
+      <c r="C584" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B585" s="3"/>
+      <c r="C585" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B586" s="3"/>
+      <c r="C586" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B587" s="3"/>
+      <c r="C587" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B588" s="3"/>
+      <c r="C588" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B589" s="3"/>
+      <c r="C589" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B590" s="3"/>
+      <c r="C590" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B591" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B592" s="3"/>
+      <c r="C592" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B593" s="3"/>
+      <c r="C593" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B594" s="3"/>
+      <c r="C594" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B595" s="3"/>
+      <c r="C595" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B596" s="3"/>
+      <c r="C596" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B597" s="3"/>
+      <c r="C597" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B598" s="3"/>
+      <c r="C598" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B599" s="3"/>
+      <c r="C599" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B600" s="3"/>
+      <c r="C600" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B601" s="3"/>
+      <c r="C601" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B602" s="3"/>
+      <c r="C602" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B603" s="3"/>
+      <c r="C603" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B604" s="3"/>
+      <c r="C604" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B605" s="3"/>
+      <c r="C605" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B606" s="3"/>
+      <c r="C606" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B607" s="3"/>
+      <c r="C607" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B608" s="3"/>
+      <c r="C608" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B609" s="3"/>
+      <c r="C609" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B610" s="3"/>
+      <c r="C610" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B611" s="3"/>
+      <c r="C611" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B612" s="3"/>
+      <c r="C612" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B613" s="3"/>
+      <c r="C613" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="614" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B614" s="3"/>
+      <c r="C614" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="615" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B615" s="3"/>
+      <c r="C615" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="616" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B616" s="3"/>
+      <c r="C616" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="617" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B617" s="3"/>
+      <c r="C617" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="618" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B618" s="3"/>
+      <c r="C618" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="619" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B619" s="3"/>
+      <c r="C619" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="620" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B620" s="3"/>
+      <c r="C620" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="621" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B621" s="3"/>
+      <c r="C621" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="622" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B622" s="3"/>
+      <c r="C622" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="623" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B623" s="3"/>
+      <c r="C623" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="624" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B624" s="3"/>
+      <c r="C624" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="625" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B625" s="3"/>
+      <c r="C625" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="626" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B626" s="3"/>
+      <c r="C626" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="627" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B627" s="3"/>
+      <c r="C627" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="628" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B628" s="3"/>
+      <c r="C628" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="629" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B629" s="3"/>
+      <c r="C629" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="630" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B630" s="3"/>
+      <c r="C630" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="631" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B631" s="3"/>
+      <c r="C631" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="632" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B632" s="3"/>
+      <c r="C632" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="633" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B633" s="3"/>
+      <c r="C633" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="634" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B634" s="3"/>
+      <c r="C634" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="635" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B635" s="3"/>
+      <c r="C635" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="636" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B636" s="3"/>
+      <c r="C636" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="637" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B637" s="3"/>
+      <c r="C637" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B638" s="3"/>
+      <c r="C638" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B639" s="3"/>
+      <c r="C639" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="640" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B640" s="3"/>
+      <c r="C640" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B641" s="3"/>
+      <c r="C641" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="642" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B642" s="3"/>
+      <c r="C642" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="643" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B643" s="3"/>
+      <c r="C643" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="644" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B644" s="3"/>
+      <c r="C644" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="645" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B645" s="3"/>
+      <c r="C645" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="646" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B646" s="3"/>
+      <c r="C646" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="647" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B647" s="3"/>
+      <c r="C647" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="648" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B648" s="3"/>
+      <c r="C648" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="649" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B649" s="3"/>
+      <c r="C649" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="650" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B650" s="3"/>
+      <c r="C650" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="651" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B651" s="3"/>
+      <c r="C651" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="652" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B652" s="3"/>
+      <c r="C652" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="653" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B653" s="3"/>
+      <c r="C653" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="654" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B654" s="3"/>
+      <c r="C654" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="655" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B655" s="3"/>
+      <c r="C655" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="656" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B656" s="3"/>
+      <c r="C656" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="657" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B657" s="3"/>
+      <c r="C657" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="658" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B658" s="3"/>
+      <c r="C658" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="659" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B659" s="3"/>
+      <c r="C659" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="660" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B660" s="3"/>
+      <c r="C660" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="661" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B661" s="3"/>
+      <c r="C661" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="662" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B662" s="3"/>
+      <c r="C662" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="663" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B663" s="3"/>
+      <c r="C663" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="664" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B664" s="3"/>
+      <c r="C664" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="665" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B665" s="3"/>
+      <c r="C665" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="666" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B666" s="3"/>
+      <c r="C666" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="667" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B667" s="3"/>
+      <c r="C667" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="668" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B668" s="3"/>
+      <c r="C668" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="669" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B669" s="3"/>
+      <c r="C669" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="670" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B670" s="3"/>
+      <c r="C670" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="671" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B671" s="3"/>
+      <c r="C671" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="672" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B672" s="3"/>
+      <c r="C672" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="673" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B673" s="3"/>
+      <c r="C673" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="674" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B674" s="3"/>
+      <c r="C674" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="675" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B675" s="3"/>
+      <c r="C675" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="676" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B676" s="3"/>
+      <c r="C676" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="677" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B677" s="3"/>
+      <c r="C677" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="678" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B678" s="3"/>
+      <c r="C678" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="679" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B679" s="3"/>
+      <c r="C679" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="680" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B680" s="3"/>
+      <c r="C680" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="681" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B681" s="3"/>
+      <c r="C681" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="682" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B682" s="3"/>
+      <c r="C682" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="683" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B683" s="3"/>
+      <c r="C683" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="684" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B684" s="3"/>
+      <c r="C684" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="685" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B685" s="3"/>
+      <c r="C685" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="686" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B686" s="3"/>
+      <c r="C686" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="687" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B687" s="3"/>
+      <c r="C687" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="688" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B688" s="3"/>
+      <c r="C688" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="689" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B689" s="3"/>
+      <c r="C689" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="690" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B690" s="3"/>
+      <c r="C690" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="691" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B691" s="3"/>
+      <c r="C691" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="692" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B692" s="3"/>
+      <c r="C692" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="693" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B693" s="3"/>
+      <c r="C693" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="694" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B694" s="3"/>
+      <c r="C694" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="695" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B695" s="3"/>
+      <c r="C695" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="696" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B696" s="3"/>
+      <c r="C696" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="697" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B697" s="3"/>
+      <c r="C697" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="698" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B698" s="3"/>
+      <c r="C698" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="699" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B699" s="3"/>
+      <c r="C699" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="700" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B700" s="3"/>
+      <c r="C700" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="701" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B701" s="3"/>
+      <c r="C701" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="702" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B702" s="3"/>
+      <c r="C702" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="703" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B703" s="3"/>
+      <c r="C703" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="704" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B704" s="3"/>
+      <c r="C704" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="705" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B705" s="3"/>
+      <c r="C705" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="706" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B706" s="3"/>
+      <c r="C706" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="707" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B707" s="3"/>
+      <c r="C707" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="708" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B708" s="3"/>
+      <c r="C708" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="709" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B709" s="3"/>
+      <c r="C709" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="710" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B710" s="3"/>
+      <c r="C710" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="711" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B711" s="3"/>
+      <c r="C711" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="712" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B712" s="3"/>
+      <c r="C712" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="713" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B713" s="3"/>
+      <c r="C713" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="714" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B714" s="3"/>
+      <c r="C714" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="715" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B715" s="3"/>
+      <c r="C715" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="716" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B716" s="3"/>
+      <c r="C716" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="717" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B717" s="3"/>
+      <c r="C717" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="718" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B718" s="3"/>
+      <c r="C718" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="719" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B719" s="3"/>
+      <c r="C719" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="720" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B720" s="3"/>
+      <c r="C720" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="721" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B721" s="3"/>
+      <c r="C721" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="722" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B722" s="3"/>
+      <c r="C722" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="723" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B723" s="3"/>
+      <c r="C723" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="724" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B724" s="3"/>
+      <c r="C724" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="725" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B725" s="3"/>
+      <c r="C725" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="726" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B726" s="3"/>
+      <c r="C726" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="727" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B727" s="3"/>
+      <c r="C727" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="728" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B728" s="3"/>
+      <c r="C728" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="729" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B729" s="3"/>
+      <c r="C729" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="730" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B730" s="3"/>
+      <c r="C730" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="731" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B731" s="3"/>
+      <c r="C731" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="732" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B732" s="3"/>
+      <c r="C732" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="733" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B733" s="3"/>
+      <c r="C733" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="734" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B734" s="3"/>
+      <c r="C734" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="735" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B735" s="3"/>
+      <c r="C735" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="736" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B736" s="3"/>
+      <c r="C736" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="737" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B737" s="3"/>
+      <c r="C737" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="738" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B738" s="3"/>
+      <c r="C738" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="739" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B739" s="3"/>
+      <c r="C739" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="740" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B740" s="3"/>
+      <c r="C740" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="741" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B741" s="3"/>
+      <c r="C741" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="742" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B742" s="3"/>
+      <c r="C742" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="743" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B743" s="3"/>
+      <c r="C743" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="744" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B744" s="3"/>
+      <c r="C744" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="745" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B745" s="3"/>
+      <c r="C745" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="746" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B746" s="3"/>
+      <c r="C746" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="747" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B747" s="3"/>
+      <c r="C747" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="748" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B748" s="3"/>
+      <c r="C748" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="749" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B749" s="3"/>
+      <c r="C749" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="750" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B750" s="3"/>
+      <c r="C750" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="751" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B751" s="3"/>
+      <c r="C751" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="752" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B752" s="3"/>
+      <c r="C752" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="753" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B753" s="3"/>
+      <c r="C753" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="754" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B754" s="3"/>
+      <c r="C754" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="755" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B755" s="3"/>
+      <c r="C755" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="756" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B756" s="3"/>
+      <c r="C756" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="757" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B757" s="3"/>
+      <c r="C757" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="758" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B758" s="3"/>
+      <c r="C758" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="759" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B759" s="3"/>
+      <c r="C759" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="760" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B760" s="3"/>
+      <c r="C760" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="761" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B761" s="3"/>
+      <c r="C761" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="762" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B762" s="3"/>
+      <c r="C762" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="763" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B763" s="3"/>
+      <c r="C763" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="764" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B764" s="3"/>
+      <c r="C764" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="765" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B765" s="3"/>
+      <c r="C765" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="766" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B766" s="3"/>
+      <c r="C766" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="767" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B767" s="3"/>
+      <c r="C767" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="768" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B768" s="3"/>
+      <c r="C768" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="769" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B769" s="3"/>
+      <c r="C769" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="770" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B770" s="3"/>
+      <c r="C770" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="771" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B771" s="3"/>
+      <c r="C771" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="772" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B772" s="3"/>
+      <c r="C772" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="773" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B773" s="3"/>
+      <c r="C773" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="774" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B774" s="3"/>
+      <c r="C774" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="775" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B775" s="3"/>
+      <c r="C775" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="776" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B776" s="3"/>
+      <c r="C776" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="777" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B777" s="3"/>
+      <c r="C777" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="778" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B778" s="3"/>
+      <c r="C778" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="779" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B779" s="3"/>
+      <c r="C779" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="780" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B780" s="3"/>
+      <c r="C780" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="781" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B781" s="3"/>
+      <c r="C781" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="782" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B782" s="3"/>
+      <c r="C782" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="783" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B783" s="3"/>
+      <c r="C783" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="784" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B784" s="3"/>
+      <c r="C784" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="785" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B785" s="3"/>
+      <c r="C785" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="786" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B786" s="3"/>
+      <c r="C786" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="787" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B787" s="3"/>
+      <c r="C787" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="788" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B788" s="3"/>
+      <c r="C788" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="789" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B789" s="3"/>
+      <c r="C789" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="790" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B790" s="3"/>
+      <c r="C790" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="791" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B791" s="3"/>
+      <c r="C791" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="792" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B792" s="3"/>
+      <c r="C792" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="793" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B793" s="3"/>
+      <c r="C793" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="794" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B794" s="3"/>
+      <c r="C794" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="795" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B795" s="3"/>
+      <c r="C795" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="796" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B796" s="3"/>
+      <c r="C796" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="797" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B797" s="3"/>
+      <c r="C797" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="798" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B798" s="3"/>
+      <c r="C798" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="799" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B799" s="3"/>
+      <c r="C799" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="800" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B800" s="3"/>
+      <c r="C800" s="3" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
